--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_007.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_007.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295019AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Leak isolation</t>
-  </si>
-  <si>
-    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
-  </si>
-  <si>
-    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
-  </si>
-  <si>
-    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295026EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
-  </si>
-  <si>
-    <t>(295016AK2.05) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295023AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Inadvertent criticality</t>
-  </si>
-  <si>
-    <t>(295030EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295037EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295034EK2.04) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(295014AA1.01) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295008AA2.05) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Swell</t>
-  </si>
-  <si>
-    <t>(215005K2.03) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) OPRM channels</t>
-  </si>
-  <si>
-    <t>(223002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Individual system relay status</t>
-  </si>
-  <si>
-    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(261000A3.02) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Fan start</t>
-  </si>
-  <si>
-    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
-  </si>
-  <si>
-    <t>(264000A4.06) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Droop setting</t>
-  </si>
-  <si>
-    <t>(209002K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
-  </si>
-  <si>
-    <t>(300000K4.02) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Crossover to other pneumatic systems</t>
-  </si>
-  <si>
-    <t>(510000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water level</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(217000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(215004K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
-  </si>
-  <si>
-    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(218000A4.02) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic initiation</t>
-  </si>
-  <si>
-    <t>(209001K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291005K1.02) MOTORS AND GENERATORS (CFR: 41.7) Potential consequences of overheating motor insulation or motor bearings</t>
-  </si>
-  <si>
-    <t>(239002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Relief function of SRV operation</t>
-  </si>
-  <si>
-    <t>(215003K4.04) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Ranging IRMs</t>
-  </si>
-  <si>
-    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
-  </si>
-  <si>
-    <t>(215005K2.01) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) LPRM channels</t>
-  </si>
-  <si>
-    <t>(223002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295018AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Reactor power reduction</t>
+  </si>
+  <si>
+    <t>(295006AA1.06) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295026EK2.09) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295031EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Steam cooling</t>
+  </si>
+  <si>
+    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
+  </si>
+  <si>
+    <t>(295003AA1.04) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295024EK2.07) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Raising reactor water level</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
+  </si>
+  <si>
+    <t>(700000AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Under-excitation</t>
+  </si>
+  <si>
+    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295020AA2.03) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295012AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.8 to 41.10) Drywell pressure </t>
+  </si>
+  <si>
+    <t>(295009AA1.03) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(209001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of emergency generators</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(203000K3.04) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(262001A2.09) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding voltage limitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215003A3.01) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Meters and recorders </t>
+  </si>
+  <si>
+    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(215005K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(209002K4.12) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic transfer of HPCS pump suction</t>
+  </si>
+  <si>
+    <t>(223002A4.02) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation of the system</t>
+  </si>
+  <si>
+    <t>(218000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Primary containment/drywell pressure instrumentation</t>
+  </si>
+  <si>
+    <t>(239002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Tailpipe temperature monitoring</t>
+  </si>
+  <si>
+    <t>(400000K3.04) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Service water system</t>
+  </si>
+  <si>
+    <t>(217000A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation signal</t>
   </si>
   <si>
     <t>(261000A3.01) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
   </si>
   <si>
-    <t>(234000K4.07) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Hoist overload or underload protection</t>
-  </si>
-  <si>
-    <t>(271000A2.03) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Main steam line high radiation</t>
-  </si>
-  <si>
-    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
-  </si>
-  <si>
-    <t>(290001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) Auxiliary building differential pressure (BWR 6)</t>
-  </si>
-  <si>
-    <t>(245000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(241000A3.01) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Turbine speed control</t>
-  </si>
-  <si>
-    <t>(226001K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.7 / 45.7) Containment vacuum breakers (Mark III)</t>
-  </si>
-  <si>
-    <t>(233000A4.09) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system pumps</t>
-  </si>
-  <si>
-    <t>(202002K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(215001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.5 / 45.3) Flux detection</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(211000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump discharge pressure</t>
+  </si>
+  <si>
+    <t>(510000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(215004K4.04) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Changing detector position</t>
+  </si>
+  <si>
+    <t>(264000A4.03) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of emergency control between manual and automatic</t>
+  </si>
+  <si>
+    <t>(209001K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) ADS</t>
+  </si>
+  <si>
+    <t>(212000A2.16) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Mode switch malfunction or misposition</t>
+  </si>
+  <si>
+    <t>(203000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
+  </si>
+  <si>
+    <t>(223001K4.06) Knowledge of (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES design features and/or interlocks that provide for the following: (CFR: 41.7) Maintains proper containment/secondary containment to drywell differential pressure</t>
+  </si>
+  <si>
+    <t>(216000A4.02) Ability to manually operate and/or monitor the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Channel select controls</t>
+  </si>
+  <si>
+    <t>(230000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.7 / 45.7) High drywell pressure</t>
+  </si>
+  <si>
+    <t>(288000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.4) Airborne contamination control</t>
+  </si>
+  <si>
+    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(226001A2.06) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC electrical failures</t>
+  </si>
+  <si>
+    <t>(290001A3.02) Ability to monitor automatic operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.7 / 45.7) Normal building differential pressure</t>
+  </si>
+  <si>
+    <t>(219000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(201005K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
+  </si>
+  <si>
+    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(292008K1.03) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Describe count rate and instrument response that should be observed for rod withdrawal during the approach to criticality</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t>(293007K1.07) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Describe how the presence of gases or steam can</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(202002A2.13) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of loop flow signal</t>
+  </si>
+  <si>
+    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(245000A2.09) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine vibration</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292008K1.11) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Discuss the concept of the point of adding heat (POAH) and its impact on reactor power</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(293008K1.06) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define a natural convection heat transfer</t>
-  </si>
-  <si>
-    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295010AA2.01) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Leak rates</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(209002A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001A2.11) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded bus voltages</t>
-  </si>
-  <si>
-    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000A2.05) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical failures</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
     <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
+    <t>K4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295021</t>
+    <t>295004</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295024</t>
+    <t>295016</t>
   </si>
   <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295031</t>
+    <t>295037</t>
   </si>
   <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>290001</t>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
   <si>
     <t>245000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>290003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1480,7 +1480,7 @@
         <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1514,7 +1514,7 @@
         <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1667,7 +1667,7 @@
         <v>4.3</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D78" t="s">
         <v>109</v>
@@ -2296,7 +2296,7 @@
         <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
         <v>109</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
         <v>109</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
         <v>109</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D92" t="s">
         <v>109</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
